--- a/metrics/R2/upto time/Ictus (UPTO).xlsx
+++ b/metrics/R2/upto time/Ictus (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2931700402722823</v>
+        <v>0.2602501813730228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2931700402722822</v>
+        <v>0.2602501813730227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2931700402722822</v>
+        <v>0.2602501813730227</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9990339089932405</v>
+        <v>0.9842652796756802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990823119557937</v>
+        <v>0.9813957590686451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9990685856107558</v>
+        <v>0.9856767456122916</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996737591754093</v>
+        <v>0.9943733899374725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996744290037584</v>
+        <v>0.9943710350470477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9996741916531902</v>
+        <v>0.9943430185647577</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9682298763231868</v>
+        <v>0.9448575913810271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9678257135664506</v>
+        <v>0.9241325710687276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.956203117501958</v>
+        <v>0.917459791516499</v>
       </c>
     </row>
   </sheetData>
